--- a/CEA_model/2030_ChangedTemp/inputs/technology/assemblies/HVAC.xlsx
+++ b/CEA_model/2030_ChangedTemp/inputs/technology/assemblies/HVAC.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" mc:Ignorable="x15 xr xr6 xr10">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24326"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27231"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\luis.santos\Documents\CityEnergyAnalyst\CityEnergyAnalyst\cea\databases\SG\assemblies\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\felix\Programmieren\CEA_NUS_DT\CEA_model\2030_ChangedTemp\inputs\technology\assemblies\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{ADB2C208-F54D-4067-ACCD-7073D5504801}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EA853B2F-72FE-42ED-8E52-622E047FD332}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="2"/>
+    <workbookView xWindow="59760" yWindow="2160" windowWidth="21600" windowHeight="10800" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="HOT_WATER" sheetId="3" r:id="rId1"/>
@@ -20,20 +20,11 @@
     <sheet name="CONTROLLER" sheetId="5" r:id="rId5"/>
   </sheets>
   <calcPr calcId="162913"/>
-  <extLst>
-    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
-      <xcalcf:calcFeatures>
-        <xcalcf:feature name="microsoft.com:RD"/>
-        <xcalcf:feature name="microsoft.com:FV"/>
-        <xcalcf:feature name="microsoft.com:LET_WF"/>
-      </xcalcf:calcFeatures>
-    </ext>
-  </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="162" uniqueCount="93">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="168" uniqueCount="97">
   <si>
     <t>Description</t>
   </si>
@@ -312,12 +303,24 @@
   </si>
   <si>
     <t>supply air temperatures of ahu and aru accroding to Ashrae 90.1 (55F)</t>
+  </si>
+  <si>
+    <t>class_dhw</t>
+  </si>
+  <si>
+    <t>HIGH_TEMP</t>
+  </si>
+  <si>
+    <t>MEDIUM_TEMP</t>
+  </si>
+  <si>
+    <t>LOW_TEMP</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -405,16 +408,13 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="9">
+  <cellXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="49" fontId="2" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -431,8 +431,8 @@
     </xf>
   </cellXfs>
   <cellStyles count="2">
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
-    <cellStyle name="Normal 2 2" xfId="1"/>
+    <cellStyle name="Normal 2 2" xfId="1" xr:uid="{00000000-0005-0000-0000-000001000000}"/>
+    <cellStyle name="Standard" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -709,22 +709,22 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:D6"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:E6"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B6" sqref="B2:B6"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="G4" sqref="G4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.81640625" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.81640625" defaultRowHeight="14.75" x14ac:dyDescent="0.75"/>
   <cols>
     <col min="1" max="1" width="38.453125" customWidth="1"/>
-    <col min="2" max="2" width="21.7265625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="8.81640625" customWidth="1"/>
-    <col min="4" max="4" width="15" bestFit="1" customWidth="1"/>
+    <col min="2" max="3" width="18.86328125" customWidth="1"/>
+    <col min="4" max="4" width="8.81640625" customWidth="1"/>
+    <col min="5" max="5" width="15" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.75">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -732,79 +732,97 @@
         <v>1</v>
       </c>
       <c r="C1" s="1" t="s">
+        <v>93</v>
+      </c>
+      <c r="D1" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="E1" s="1" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:5" x14ac:dyDescent="0.75">
       <c r="A2" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="B2" s="8" t="s">
+      <c r="B2" s="7" t="s">
         <v>60</v>
       </c>
-      <c r="C2" s="5">
-        <v>0</v>
-      </c>
-      <c r="D2" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="C2" s="7" t="s">
+        <v>81</v>
+      </c>
+      <c r="D2" s="4">
+        <v>0</v>
+      </c>
+      <c r="E2" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.75">
       <c r="A3" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="B3" s="8" t="s">
+      <c r="B3" s="7" t="s">
         <v>61</v>
       </c>
-      <c r="C3" s="6">
+      <c r="C3" s="7" t="s">
+        <v>94</v>
+      </c>
+      <c r="D3" s="5">
         <v>60</v>
       </c>
-      <c r="D3" s="3">
+      <c r="E3" s="3">
         <v>500</v>
       </c>
     </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:5" x14ac:dyDescent="0.75">
       <c r="A4" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="B4" s="8" t="s">
+      <c r="B4" s="7" t="s">
         <v>62</v>
       </c>
-      <c r="C4" s="6">
+      <c r="C4" s="7" t="s">
+        <v>95</v>
+      </c>
+      <c r="D4" s="5">
         <v>45</v>
       </c>
-      <c r="D4" s="3">
+      <c r="E4" s="3">
         <v>500</v>
       </c>
     </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:5" x14ac:dyDescent="0.75">
       <c r="A5" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="B5" s="8" t="s">
+      <c r="B5" s="7" t="s">
         <v>63</v>
       </c>
-      <c r="C5" s="6">
+      <c r="C5" s="7" t="s">
+        <v>96</v>
+      </c>
+      <c r="D5" s="5">
         <v>35</v>
       </c>
-      <c r="D5" s="3">
+      <c r="E5" s="3">
         <v>500</v>
       </c>
     </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:5" x14ac:dyDescent="0.75">
       <c r="A6" s="1" t="s">
         <v>52</v>
       </c>
-      <c r="B6" s="8" t="s">
+      <c r="B6" s="7" t="s">
         <v>59</v>
       </c>
-      <c r="C6" s="6">
+      <c r="C6" s="7" t="s">
+        <v>94</v>
+      </c>
+      <c r="D6" s="5">
         <v>60</v>
       </c>
-      <c r="D6" s="3">
+      <c r="E6" s="3">
         <v>500</v>
       </c>
     </row>
@@ -814,14 +832,14 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:N6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="C1" sqref="C1:D6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.81640625" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.81640625" defaultRowHeight="14.75" x14ac:dyDescent="0.75"/>
   <cols>
     <col min="1" max="1" width="21.1796875" customWidth="1"/>
     <col min="2" max="2" width="19.453125" bestFit="1" customWidth="1"/>
@@ -835,7 +853,7 @@
     <col min="11" max="11" width="9.453125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:14" x14ac:dyDescent="0.75">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -879,223 +897,223 @@
         <v>49</v>
       </c>
     </row>
-    <row r="2" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:14" x14ac:dyDescent="0.75">
       <c r="A2" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="B2" s="8" t="s">
+      <c r="B2" s="7" t="s">
         <v>54</v>
       </c>
-      <c r="C2" s="8" t="s">
+      <c r="C2" s="7" t="s">
         <v>81</v>
       </c>
-      <c r="D2" s="8">
-        <v>0</v>
-      </c>
-      <c r="E2" s="4">
-        <v>0</v>
-      </c>
-      <c r="F2" s="4">
-        <v>0</v>
-      </c>
-      <c r="G2" s="4" t="s">
-        <v>36</v>
-      </c>
-      <c r="H2" s="4" t="s">
-        <v>36</v>
-      </c>
-      <c r="I2" s="4" t="s">
-        <v>36</v>
-      </c>
-      <c r="J2" s="4" t="s">
-        <v>36</v>
-      </c>
-      <c r="K2" s="4" t="s">
-        <v>36</v>
-      </c>
-      <c r="L2" s="4" t="s">
-        <v>36</v>
-      </c>
-      <c r="M2" s="4" t="s">
-        <v>36</v>
-      </c>
-      <c r="N2" s="4" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="3" spans="1:14" x14ac:dyDescent="0.35">
+      <c r="D2" s="7">
+        <v>0</v>
+      </c>
+      <c r="E2" s="3">
+        <v>0</v>
+      </c>
+      <c r="F2" s="3">
+        <v>0</v>
+      </c>
+      <c r="G2" s="3" t="s">
+        <v>36</v>
+      </c>
+      <c r="H2" s="3" t="s">
+        <v>36</v>
+      </c>
+      <c r="I2" s="3" t="s">
+        <v>36</v>
+      </c>
+      <c r="J2" s="3" t="s">
+        <v>36</v>
+      </c>
+      <c r="K2" s="3" t="s">
+        <v>36</v>
+      </c>
+      <c r="L2" s="3" t="s">
+        <v>36</v>
+      </c>
+      <c r="M2" s="3" t="s">
+        <v>36</v>
+      </c>
+      <c r="N2" s="3" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="3" spans="1:14" x14ac:dyDescent="0.75">
       <c r="A3" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="B3" s="8" t="s">
+      <c r="B3" s="7" t="s">
         <v>55</v>
       </c>
-      <c r="C3" s="8" t="s">
+      <c r="C3" s="7" t="s">
         <v>82</v>
       </c>
-      <c r="D3" s="8">
-        <v>1</v>
-      </c>
-      <c r="E3" s="4">
+      <c r="D3" s="7">
+        <v>1</v>
+      </c>
+      <c r="E3" s="3">
         <v>500</v>
       </c>
-      <c r="F3" s="4">
+      <c r="F3" s="3">
         <v>0.15</v>
       </c>
-      <c r="G3" s="4" t="s">
-        <v>36</v>
-      </c>
-      <c r="H3" s="4" t="s">
-        <v>36</v>
-      </c>
-      <c r="I3" s="4" t="s">
-        <v>36</v>
-      </c>
-      <c r="J3" s="4" t="s">
-        <v>36</v>
-      </c>
-      <c r="K3" s="4" t="s">
-        <v>36</v>
-      </c>
-      <c r="L3" s="4" t="s">
-        <v>36</v>
-      </c>
-      <c r="M3" s="4">
+      <c r="G3" s="3" t="s">
+        <v>36</v>
+      </c>
+      <c r="H3" s="3" t="s">
+        <v>36</v>
+      </c>
+      <c r="I3" s="3" t="s">
+        <v>36</v>
+      </c>
+      <c r="J3" s="3" t="s">
+        <v>36</v>
+      </c>
+      <c r="K3" s="3" t="s">
+        <v>36</v>
+      </c>
+      <c r="L3" s="3" t="s">
+        <v>36</v>
+      </c>
+      <c r="M3" s="3">
         <v>90</v>
       </c>
-      <c r="N3" s="4">
+      <c r="N3" s="3">
         <v>20</v>
       </c>
     </row>
-    <row r="4" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:14" x14ac:dyDescent="0.75">
       <c r="A4" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="B4" s="8" t="s">
+      <c r="B4" s="7" t="s">
         <v>56</v>
       </c>
-      <c r="C4" s="8" t="s">
+      <c r="C4" s="7" t="s">
         <v>82</v>
       </c>
-      <c r="D4" s="8">
-        <v>1</v>
-      </c>
-      <c r="E4" s="4">
+      <c r="D4" s="7">
+        <v>1</v>
+      </c>
+      <c r="E4" s="3">
         <v>500</v>
       </c>
-      <c r="F4" s="4">
+      <c r="F4" s="3">
         <v>-0.1</v>
       </c>
-      <c r="G4" s="4" t="s">
-        <v>36</v>
-      </c>
-      <c r="H4" s="4" t="s">
-        <v>36</v>
-      </c>
-      <c r="I4" s="4" t="s">
-        <v>36</v>
-      </c>
-      <c r="J4" s="4" t="s">
-        <v>36</v>
-      </c>
-      <c r="K4" s="4" t="s">
-        <v>36</v>
-      </c>
-      <c r="L4" s="4" t="s">
-        <v>36</v>
-      </c>
-      <c r="M4" s="4">
+      <c r="G4" s="3" t="s">
+        <v>36</v>
+      </c>
+      <c r="H4" s="3" t="s">
+        <v>36</v>
+      </c>
+      <c r="I4" s="3" t="s">
+        <v>36</v>
+      </c>
+      <c r="J4" s="3" t="s">
+        <v>36</v>
+      </c>
+      <c r="K4" s="3" t="s">
+        <v>36</v>
+      </c>
+      <c r="L4" s="3" t="s">
+        <v>36</v>
+      </c>
+      <c r="M4" s="3">
         <v>70</v>
       </c>
-      <c r="N4" s="4">
+      <c r="N4" s="3">
         <v>15</v>
       </c>
     </row>
-    <row r="5" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:14" x14ac:dyDescent="0.75">
       <c r="A5" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="B5" s="8" t="s">
+      <c r="B5" s="7" t="s">
         <v>57</v>
       </c>
-      <c r="C5" s="8" t="s">
+      <c r="C5" s="7" t="s">
         <v>83</v>
       </c>
-      <c r="D5" s="8">
-        <v>1</v>
-      </c>
-      <c r="E5" s="4">
+      <c r="D5" s="7">
+        <v>1</v>
+      </c>
+      <c r="E5" s="3">
         <v>500</v>
       </c>
-      <c r="F5" s="4">
+      <c r="F5" s="3">
         <v>-1.1000000000000001</v>
       </c>
-      <c r="G5" s="4">
+      <c r="G5" s="3">
         <v>40</v>
       </c>
-      <c r="H5" s="4">
+      <c r="H5" s="3">
         <v>20</v>
       </c>
-      <c r="I5" s="4">
-        <v>36</v>
-      </c>
-      <c r="J5" s="4">
+      <c r="I5" s="3">
+        <v>36</v>
+      </c>
+      <c r="J5" s="3">
         <v>40</v>
       </c>
-      <c r="K5" s="4">
+      <c r="K5" s="3">
         <v>20</v>
       </c>
-      <c r="L5" s="4">
-        <v>36</v>
-      </c>
-      <c r="M5" s="4" t="s">
-        <v>36</v>
-      </c>
-      <c r="N5" s="4" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="6" spans="1:14" x14ac:dyDescent="0.35">
+      <c r="L5" s="3">
+        <v>36</v>
+      </c>
+      <c r="M5" s="3" t="s">
+        <v>36</v>
+      </c>
+      <c r="N5" s="3" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="6" spans="1:14" x14ac:dyDescent="0.75">
       <c r="A6" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="B6" s="8" t="s">
+      <c r="B6" s="7" t="s">
         <v>58</v>
       </c>
-      <c r="C6" s="8" t="s">
+      <c r="C6" s="7" t="s">
         <v>84</v>
       </c>
-      <c r="D6" s="8">
+      <c r="D6" s="7">
         <v>0.5</v>
       </c>
-      <c r="E6" s="4">
+      <c r="E6" s="3">
         <v>150</v>
       </c>
-      <c r="F6" s="4">
+      <c r="F6" s="3">
         <v>-0.9</v>
       </c>
-      <c r="G6" s="4" t="s">
-        <v>36</v>
-      </c>
-      <c r="H6" s="4" t="s">
-        <v>36</v>
-      </c>
-      <c r="I6" s="4" t="s">
-        <v>36</v>
-      </c>
-      <c r="J6" s="4" t="s">
-        <v>36</v>
-      </c>
-      <c r="K6" s="4" t="s">
-        <v>36</v>
-      </c>
-      <c r="L6" s="4" t="s">
-        <v>36</v>
-      </c>
-      <c r="M6" s="4">
+      <c r="G6" s="3" t="s">
+        <v>36</v>
+      </c>
+      <c r="H6" s="3" t="s">
+        <v>36</v>
+      </c>
+      <c r="I6" s="3" t="s">
+        <v>36</v>
+      </c>
+      <c r="J6" s="3" t="s">
+        <v>36</v>
+      </c>
+      <c r="K6" s="3" t="s">
+        <v>36</v>
+      </c>
+      <c r="L6" s="3" t="s">
+        <v>36</v>
+      </c>
+      <c r="M6" s="3">
         <v>40</v>
       </c>
-      <c r="N6" s="4">
+      <c r="N6" s="3">
         <v>5</v>
       </c>
     </row>
@@ -1106,14 +1124,14 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:O7"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="J4" sqref="J4:J6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.81640625" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.81640625" defaultRowHeight="14.75" x14ac:dyDescent="0.75"/>
   <cols>
     <col min="1" max="1" width="20.453125" customWidth="1"/>
     <col min="2" max="2" width="19.7265625" bestFit="1" customWidth="1"/>
@@ -1129,7 +1147,7 @@
     <col min="15" max="15" width="63.54296875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:15" x14ac:dyDescent="0.75">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1172,247 +1190,247 @@
       <c r="N1" s="1" t="s">
         <v>51</v>
       </c>
-      <c r="O1" s="7" t="s">
+      <c r="O1" s="6" t="s">
         <v>91</v>
       </c>
     </row>
-    <row r="2" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:15" x14ac:dyDescent="0.75">
       <c r="A2" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="B2" s="8" t="s">
+      <c r="B2" s="7" t="s">
         <v>74</v>
       </c>
-      <c r="C2" s="8" t="s">
+      <c r="C2" s="7" t="s">
         <v>81</v>
       </c>
-      <c r="D2" s="8">
-        <v>0</v>
-      </c>
-      <c r="E2" s="4">
-        <v>0</v>
-      </c>
-      <c r="F2" s="4">
-        <v>0</v>
-      </c>
-      <c r="G2" s="4" t="s">
-        <v>36</v>
-      </c>
-      <c r="H2" s="4" t="s">
-        <v>36</v>
-      </c>
-      <c r="I2" s="4" t="s">
-        <v>36</v>
-      </c>
-      <c r="J2" s="4" t="s">
-        <v>36</v>
-      </c>
-      <c r="K2" s="4" t="s">
-        <v>36</v>
-      </c>
-      <c r="L2" s="4" t="s">
-        <v>36</v>
-      </c>
-      <c r="M2" s="4" t="s">
-        <v>36</v>
-      </c>
-      <c r="N2" s="4" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="3" spans="1:15" x14ac:dyDescent="0.35">
+      <c r="D2" s="7">
+        <v>0</v>
+      </c>
+      <c r="E2" s="3">
+        <v>0</v>
+      </c>
+      <c r="F2" s="3">
+        <v>0</v>
+      </c>
+      <c r="G2" s="3" t="s">
+        <v>36</v>
+      </c>
+      <c r="H2" s="3" t="s">
+        <v>36</v>
+      </c>
+      <c r="I2" s="3" t="s">
+        <v>36</v>
+      </c>
+      <c r="J2" s="3" t="s">
+        <v>36</v>
+      </c>
+      <c r="K2" s="3" t="s">
+        <v>36</v>
+      </c>
+      <c r="L2" s="3" t="s">
+        <v>36</v>
+      </c>
+      <c r="M2" s="3" t="s">
+        <v>36</v>
+      </c>
+      <c r="N2" s="3" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="3" spans="1:15" x14ac:dyDescent="0.75">
       <c r="A3" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="B3" s="8" t="s">
+      <c r="B3" s="7" t="s">
         <v>75</v>
       </c>
-      <c r="C3" s="8" t="s">
+      <c r="C3" s="7" t="s">
         <v>87</v>
       </c>
-      <c r="D3" s="8">
+      <c r="D3" s="7">
         <v>0.5</v>
       </c>
-      <c r="E3" s="4">
+      <c r="E3" s="3">
         <v>500</v>
       </c>
-      <c r="F3" s="4">
+      <c r="F3" s="3">
         <v>0.5</v>
       </c>
-      <c r="G3" s="4" t="s">
-        <v>36</v>
-      </c>
-      <c r="H3" s="4" t="s">
-        <v>36</v>
-      </c>
-      <c r="I3" s="4" t="s">
-        <v>36</v>
-      </c>
-      <c r="J3" s="4" t="s">
-        <v>36</v>
-      </c>
-      <c r="K3" s="4" t="s">
-        <v>36</v>
-      </c>
-      <c r="L3" s="4" t="s">
-        <v>36</v>
-      </c>
-      <c r="M3" s="4">
+      <c r="G3" s="3" t="s">
+        <v>36</v>
+      </c>
+      <c r="H3" s="3" t="s">
+        <v>36</v>
+      </c>
+      <c r="I3" s="3" t="s">
+        <v>36</v>
+      </c>
+      <c r="J3" s="3" t="s">
+        <v>36</v>
+      </c>
+      <c r="K3" s="3" t="s">
+        <v>36</v>
+      </c>
+      <c r="L3" s="3" t="s">
+        <v>36</v>
+      </c>
+      <c r="M3" s="3">
         <v>18</v>
       </c>
-      <c r="N3" s="4">
+      <c r="N3" s="3">
         <v>3</v>
       </c>
     </row>
-    <row r="4" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:15" x14ac:dyDescent="0.75">
       <c r="A4" s="1" t="s">
         <v>25</v>
       </c>
-      <c r="B4" s="8" t="s">
+      <c r="B4" s="7" t="s">
         <v>73</v>
       </c>
-      <c r="C4" s="8" t="s">
+      <c r="C4" s="7" t="s">
         <v>88</v>
       </c>
-      <c r="D4" s="8">
-        <v>1</v>
-      </c>
-      <c r="E4" s="4">
+      <c r="D4" s="7">
+        <v>1</v>
+      </c>
+      <c r="E4" s="3">
         <v>150</v>
       </c>
-      <c r="F4" s="4">
+      <c r="F4" s="3">
         <v>0.7</v>
       </c>
-      <c r="G4" s="4" t="s">
-        <v>36</v>
-      </c>
-      <c r="H4" s="4" t="s">
-        <v>36</v>
-      </c>
-      <c r="I4" s="4" t="s">
-        <v>36</v>
-      </c>
-      <c r="J4" s="4">
+      <c r="G4" s="3" t="s">
+        <v>36</v>
+      </c>
+      <c r="H4" s="3" t="s">
+        <v>36</v>
+      </c>
+      <c r="I4" s="3" t="s">
+        <v>36</v>
+      </c>
+      <c r="J4" s="3">
         <v>6.5</v>
       </c>
-      <c r="K4" s="4">
+      <c r="K4" s="3">
         <v>9</v>
       </c>
-      <c r="L4" s="4">
+      <c r="L4" s="3">
         <v>16</v>
       </c>
-      <c r="M4" s="4" t="s">
-        <v>36</v>
-      </c>
-      <c r="N4" s="4" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="5" spans="1:15" x14ac:dyDescent="0.35">
+      <c r="M4" s="3" t="s">
+        <v>36</v>
+      </c>
+      <c r="N4" s="3" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="5" spans="1:15" x14ac:dyDescent="0.75">
       <c r="A5" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="B5" s="8" t="s">
+      <c r="B5" s="7" t="s">
         <v>76</v>
       </c>
-      <c r="C5" s="8" t="s">
+      <c r="C5" s="7" t="s">
         <v>83</v>
       </c>
-      <c r="D5" s="8">
-        <v>1</v>
-      </c>
-      <c r="E5" s="4">
+      <c r="D5" s="7">
+        <v>1</v>
+      </c>
+      <c r="E5" s="3">
         <v>500</v>
       </c>
-      <c r="F5" s="4">
+      <c r="F5" s="3">
         <v>0.5</v>
       </c>
-      <c r="G5" s="4">
+      <c r="G5" s="3">
         <v>6.5</v>
       </c>
-      <c r="H5" s="4">
+      <c r="H5" s="3">
         <v>9</v>
       </c>
-      <c r="I5" s="4">
+      <c r="I5" s="3">
         <v>13</v>
       </c>
-      <c r="J5" s="4">
+      <c r="J5" s="3">
         <v>6.5</v>
       </c>
-      <c r="K5" s="4">
+      <c r="K5" s="3">
         <v>9</v>
       </c>
-      <c r="L5" s="4">
+      <c r="L5" s="3">
         <v>13</v>
       </c>
-      <c r="M5" s="4" t="s">
-        <v>36</v>
-      </c>
-      <c r="N5" s="4" t="s">
+      <c r="M5" s="3" t="s">
+        <v>36</v>
+      </c>
+      <c r="N5" s="3" t="s">
         <v>36</v>
       </c>
       <c r="O5" t="s">
         <v>92</v>
       </c>
     </row>
-    <row r="6" spans="1:15" x14ac:dyDescent="0.35">
-      <c r="A6" s="7" t="s">
+    <row r="6" spans="1:15" x14ac:dyDescent="0.75">
+      <c r="A6" s="6" t="s">
         <v>34</v>
       </c>
-      <c r="B6" s="8" t="s">
+      <c r="B6" s="7" t="s">
         <v>77</v>
       </c>
-      <c r="C6" s="8" t="s">
+      <c r="C6" s="7" t="s">
         <v>89</v>
       </c>
-      <c r="D6" s="8">
-        <v>1</v>
-      </c>
-      <c r="E6" s="4">
+      <c r="D6" s="7">
+        <v>1</v>
+      </c>
+      <c r="E6" s="3">
         <v>500</v>
       </c>
-      <c r="F6" s="4">
+      <c r="F6" s="3">
         <v>0.5</v>
       </c>
-      <c r="G6" s="4">
+      <c r="G6" s="3">
         <v>6.5</v>
       </c>
-      <c r="H6" s="4">
+      <c r="H6" s="3">
         <v>7</v>
       </c>
-      <c r="I6" s="4">
+      <c r="I6" s="3">
         <v>18</v>
       </c>
-      <c r="J6" s="4">
+      <c r="J6" s="3">
         <v>6.5</v>
       </c>
-      <c r="K6" s="4">
+      <c r="K6" s="3">
         <v>4</v>
       </c>
-      <c r="L6" s="4">
+      <c r="L6" s="3">
         <v>13</v>
       </c>
-      <c r="M6" s="4">
+      <c r="M6" s="3">
         <v>18</v>
       </c>
-      <c r="N6" s="4">
+      <c r="N6" s="3">
         <v>3</v>
       </c>
       <c r="O6" t="s">
         <v>92</v>
       </c>
     </row>
-    <row r="7" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:15" x14ac:dyDescent="0.75">
       <c r="A7" s="1" t="s">
         <v>53</v>
       </c>
-      <c r="B7" s="8" t="s">
+      <c r="B7" s="7" t="s">
         <v>78</v>
       </c>
-      <c r="C7" s="8" t="s">
+      <c r="C7" s="7" t="s">
         <v>90</v>
       </c>
-      <c r="D7" s="8">
+      <c r="D7" s="7">
         <v>0.1</v>
       </c>
       <c r="E7" s="3">
@@ -1453,14 +1471,14 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <dimension ref="A1:G5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="B2" sqref="B2:B5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.81640625" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.81640625" defaultRowHeight="14.75" x14ac:dyDescent="0.75"/>
   <cols>
     <col min="1" max="1" width="51" customWidth="1"/>
     <col min="2" max="2" width="23.54296875" bestFit="1" customWidth="1"/>
@@ -1471,7 +1489,7 @@
     <col min="7" max="7" width="11.453125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.75">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1494,11 +1512,11 @@
         <v>23</v>
       </c>
     </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:7" x14ac:dyDescent="0.75">
       <c r="A2" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="B2" s="8" t="s">
+      <c r="B2" s="7" t="s">
         <v>69</v>
       </c>
       <c r="C2" s="2" t="b">
@@ -1517,11 +1535,11 @@
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:7" x14ac:dyDescent="0.75">
       <c r="A3" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="B3" s="8" t="s">
+      <c r="B3" s="7" t="s">
         <v>70</v>
       </c>
       <c r="C3" s="2" t="b">
@@ -1540,11 +1558,11 @@
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:7" x14ac:dyDescent="0.75">
       <c r="A4" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="B4" s="8" t="s">
+      <c r="B4" s="7" t="s">
         <v>71</v>
       </c>
       <c r="C4" s="2" t="b">
@@ -1563,11 +1581,11 @@
         <v>1</v>
       </c>
     </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A5" s="7" t="s">
+    <row r="5" spans="1:7" x14ac:dyDescent="0.75">
+      <c r="A5" s="6" t="s">
         <v>33</v>
       </c>
-      <c r="B5" s="8" t="s">
+      <c r="B5" s="7" t="s">
         <v>72</v>
       </c>
       <c r="C5" s="2" t="b">
@@ -1592,20 +1610,20 @@
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
   <dimension ref="A1:D6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="B4" sqref="B4:B6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.81640625" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.81640625" defaultRowHeight="14.75" x14ac:dyDescent="0.75"/>
   <cols>
     <col min="1" max="1" width="52.7265625" customWidth="1"/>
     <col min="2" max="2" width="23.1796875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.75">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1619,11 +1637,11 @@
         <v>30</v>
       </c>
     </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:4" x14ac:dyDescent="0.75">
       <c r="A2" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="B2" s="8" t="s">
+      <c r="B2" s="7" t="s">
         <v>65</v>
       </c>
       <c r="C2" s="3">
@@ -1633,11 +1651,11 @@
         <v>-2.5</v>
       </c>
     </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:4" x14ac:dyDescent="0.75">
       <c r="A3" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="B3" s="8" t="s">
+      <c r="B3" s="7" t="s">
         <v>66</v>
       </c>
       <c r="C3" s="3">
@@ -1647,11 +1665,11 @@
         <v>-2.5</v>
       </c>
     </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:4" x14ac:dyDescent="0.75">
       <c r="A4" s="1" t="s">
         <v>26</v>
       </c>
-      <c r="B4" s="8" t="s">
+      <c r="B4" s="7" t="s">
         <v>64</v>
       </c>
       <c r="C4" s="3">
@@ -1661,11 +1679,11 @@
         <v>-1.2</v>
       </c>
     </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:4" x14ac:dyDescent="0.75">
       <c r="A5" s="1" t="s">
         <v>27</v>
       </c>
-      <c r="B5" s="8" t="s">
+      <c r="B5" s="7" t="s">
         <v>67</v>
       </c>
       <c r="C5" s="3">
@@ -1675,11 +1693,11 @@
         <v>-0.9</v>
       </c>
     </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:4" x14ac:dyDescent="0.75">
       <c r="A6" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="B6" s="8" t="s">
+      <c r="B6" s="7" t="s">
         <v>68</v>
       </c>
       <c r="C6" s="3">
